--- a/app/db/tw/data/gdp/20230328 TW matching output.xlsx
+++ b/app/db/tw/data/gdp/20230328 TW matching output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidding/Desktop/East_Asia_Econ/Interactive_Dashboard/db/tw/data/gdp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E375EF-5ACE-444B-A948-FE2559FB2AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27510DD7-574E-E74F-B757-61493D3C29AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8995,8 +8995,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E3151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1242" workbookViewId="0">
-      <selection activeCell="B1243" sqref="B1243"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
